--- a/artfynd/A 62177-2025 artfynd.xlsx
+++ b/artfynd/A 62177-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130822169</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>130822196</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>130822184</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>130822173</v>
       </c>
       <c r="B5" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>130822205</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>130822200</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130822207</v>
+        <v>130822198</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1489,16 +1489,19 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>426504</v>
+        <v>426516</v>
       </c>
       <c r="R8" t="n">
-        <v>7047832</v>
+        <v>7048217</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1533,39 +1536,60 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Måttligt</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130822198</v>
+        <v>130822207</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1591,19 +1615,16 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>426516</v>
+        <v>426504</v>
       </c>
       <c r="R9" t="n">
-        <v>7048217</v>
+        <v>7047832</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1638,50 +1659,29 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Måttligt</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
@@ -1691,7 +1691,7 @@
         <v>130822181</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>130822189</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130822204</v>
+        <v>130822177</v>
       </c>
       <c r="B12" t="n">
-        <v>91824</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1932,30 +1932,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>426409</v>
+        <v>426500</v>
       </c>
       <c r="R12" t="n">
-        <v>7048165</v>
+        <v>7048040</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1990,34 +1997,65 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130822202</v>
+        <v>130822204</v>
       </c>
       <c r="B13" t="n">
-        <v>91800</v>
+        <v>91828</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2025,23 +2063,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2049,10 +2083,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>426393</v>
+        <v>426409</v>
       </c>
       <c r="R13" t="n">
-        <v>7048149</v>
+        <v>7048165</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2111,10 +2145,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130822177</v>
+        <v>130822202</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>91804</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2122,37 +2156,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>426500</v>
+        <v>426393</v>
       </c>
       <c r="R14" t="n">
-        <v>7048040</v>
+        <v>7048149</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2187,65 +2218,34 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130822199</v>
+        <v>130822203</v>
       </c>
       <c r="B15" t="n">
-        <v>91800</v>
+        <v>91828</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2253,23 +2253,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2277,10 +2273,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>426404</v>
+        <v>426286</v>
       </c>
       <c r="R15" t="n">
-        <v>7047955</v>
+        <v>7048138</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2339,10 +2335,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130822203</v>
+        <v>130822199</v>
       </c>
       <c r="B16" t="n">
-        <v>91824</v>
+        <v>91804</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2350,19 +2346,23 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>426286</v>
+        <v>426404</v>
       </c>
       <c r="R16" t="n">
-        <v>7048138</v>
+        <v>7047955</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2435,7 +2435,7 @@
         <v>130822175</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>130822188</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>130822193</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>130822186</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>130822171</v>
       </c>
       <c r="B21" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>130822201</v>
       </c>
       <c r="B22" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>130822255</v>
       </c>
       <c r="B23" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>130822179</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>130822190</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>130822185</v>
       </c>
       <c r="B26" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>130822187</v>
       </c>
       <c r="B27" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/artfynd/A 62177-2025 artfynd.xlsx
+++ b/artfynd/A 62177-2025 artfynd.xlsx
@@ -2242,10 +2242,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130822203</v>
+        <v>130822175</v>
       </c>
       <c r="B15" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2253,30 +2253,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>426286</v>
+        <v>426484</v>
       </c>
       <c r="R15" t="n">
-        <v>7048138</v>
+        <v>7048011</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2311,6 +2315,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Relativt rikligt på flera granar.</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2323,22 +2332,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130822199</v>
+        <v>130822203</v>
       </c>
       <c r="B16" t="n">
-        <v>91804</v>
+        <v>91828</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2346,23 +2355,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2370,10 +2375,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>426404</v>
+        <v>426286</v>
       </c>
       <c r="R16" t="n">
-        <v>7047955</v>
+        <v>7048138</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2432,10 +2437,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130822175</v>
+        <v>130822199</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2443,34 +2448,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>426484</v>
+        <v>426404</v>
       </c>
       <c r="R17" t="n">
-        <v>7048011</v>
+        <v>7047955</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2505,11 +2510,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Relativt rikligt på flera granar.</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2522,12 +2522,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>

--- a/artfynd/A 62177-2025 artfynd.xlsx
+++ b/artfynd/A 62177-2025 artfynd.xlsx
@@ -1460,7 +1460,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130822198</v>
+        <v>130822207</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1489,19 +1489,16 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>426516</v>
+        <v>426504</v>
       </c>
       <c r="R8" t="n">
-        <v>7048217</v>
+        <v>7047832</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1536,57 +1533,36 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Måttligt</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130822207</v>
+        <v>130822198</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1615,16 +1591,19 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>426504</v>
+        <v>426516</v>
       </c>
       <c r="R9" t="n">
-        <v>7047832</v>
+        <v>7048217</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1659,29 +1638,50 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Måttligt</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130822177</v>
+        <v>130822204</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1932,37 +1932,30 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>426500</v>
+        <v>426409</v>
       </c>
       <c r="R12" t="n">
-        <v>7048040</v>
+        <v>7048165</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1997,65 +1990,34 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130822204</v>
+        <v>130822177</v>
       </c>
       <c r="B13" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2063,30 +2025,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>426409</v>
+        <v>426500</v>
       </c>
       <c r="R13" t="n">
-        <v>7048165</v>
+        <v>7048040</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2121,24 +2090,55 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130822175</v>
+        <v>130822199</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2253,34 +2253,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>426484</v>
+        <v>426404</v>
       </c>
       <c r="R15" t="n">
-        <v>7048011</v>
+        <v>7047955</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2315,11 +2315,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Relativt rikligt på flera granar.</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2332,12 +2327,12 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -2437,10 +2432,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130822199</v>
+        <v>130822175</v>
       </c>
       <c r="B17" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2448,34 +2443,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>426404</v>
+        <v>426484</v>
       </c>
       <c r="R17" t="n">
-        <v>7047955</v>
+        <v>7048011</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2510,6 +2505,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Relativt rikligt på flera granar.</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2522,12 +2522,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>

--- a/artfynd/A 62177-2025 artfynd.xlsx
+++ b/artfynd/A 62177-2025 artfynd.xlsx
@@ -1334,7 +1334,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130822200</v>
+        <v>130822207</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1363,19 +1363,16 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>426537</v>
+        <v>426504</v>
       </c>
       <c r="R7" t="n">
-        <v>7048133</v>
+        <v>7047832</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1410,57 +1407,36 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Måttligt</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130822207</v>
+        <v>130822200</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1489,16 +1465,19 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>426504</v>
+        <v>426537</v>
       </c>
       <c r="R8" t="n">
-        <v>7047832</v>
+        <v>7048133</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1533,29 +1512,50 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Måttligt</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>

--- a/artfynd/A 62177-2025 artfynd.xlsx
+++ b/artfynd/A 62177-2025 artfynd.xlsx
@@ -1077,10 +1077,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130822173</v>
+        <v>130822198</v>
       </c>
       <c r="B5" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1088,26 +1088,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>426315</v>
+        <v>426516</v>
       </c>
       <c r="R5" t="n">
-        <v>7048136</v>
+        <v>7048217</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1153,11 +1153,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Flera fruktkroppar intill andra vedsvampar i en ca 5 meters granhögstubbe.</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1185,12 +1180,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1334,7 +1329,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130822207</v>
+        <v>130822200</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1363,16 +1358,19 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>426504</v>
+        <v>426537</v>
       </c>
       <c r="R7" t="n">
-        <v>7047832</v>
+        <v>7048133</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1407,39 +1405,60 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Måttligt</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130822200</v>
+        <v>130822173</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1447,26 +1466,26 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1474,10 +1493,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>426537</v>
+        <v>426315</v>
       </c>
       <c r="R8" t="n">
-        <v>7048133</v>
+        <v>7048136</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1512,6 +1531,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Flera fruktkroppar intill andra vedsvampar i en ca 5 meters granhögstubbe.</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1539,12 +1563,12 @@
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1562,7 +1586,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130822198</v>
+        <v>130822207</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1591,19 +1615,16 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>426516</v>
+        <v>426504</v>
       </c>
       <c r="R9" t="n">
-        <v>7048217</v>
+        <v>7047832</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1638,50 +1659,29 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Måttligt</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
@@ -2339,10 +2339,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130822203</v>
+        <v>130822175</v>
       </c>
       <c r="B16" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2350,30 +2350,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>426286</v>
+        <v>426484</v>
       </c>
       <c r="R16" t="n">
-        <v>7048138</v>
+        <v>7048011</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2408,6 +2412,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Relativt rikligt på flera granar.</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2420,22 +2429,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130822175</v>
+        <v>130822203</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2443,34 +2452,30 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>426484</v>
+        <v>426286</v>
       </c>
       <c r="R17" t="n">
-        <v>7048011</v>
+        <v>7048138</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2505,11 +2510,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Relativt rikligt på flera granar.</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2522,12 +2522,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130822255</v>
+        <v>130822179</v>
       </c>
       <c r="B23" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3153,30 +3153,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3184,10 +3180,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>426447</v>
+        <v>426474</v>
       </c>
       <c r="R23" t="n">
-        <v>7048182</v>
+        <v>7048132</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3222,6 +3218,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Enstaka bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
@@ -3249,12 +3250,12 @@
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3272,10 +3273,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130822179</v>
+        <v>130822255</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3283,26 +3284,30 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3310,10 +3315,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>426474</v>
+        <v>426447</v>
       </c>
       <c r="R24" t="n">
-        <v>7048132</v>
+        <v>7048182</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3348,11 +3353,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Enstaka bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>

--- a/artfynd/A 62177-2025 artfynd.xlsx
+++ b/artfynd/A 62177-2025 artfynd.xlsx
@@ -1077,10 +1077,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130822198</v>
+        <v>130822173</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1088,26 +1088,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>426516</v>
+        <v>426315</v>
       </c>
       <c r="R5" t="n">
-        <v>7048217</v>
+        <v>7048136</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1153,6 +1153,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Flera fruktkroppar intill andra vedsvampar i en ca 5 meters granhögstubbe.</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1180,12 +1185,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1455,10 +1460,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130822173</v>
+        <v>130822207</v>
       </c>
       <c r="B8" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1466,37 +1471,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>426315</v>
+        <v>426504</v>
       </c>
       <c r="R8" t="n">
-        <v>7048136</v>
+        <v>7047832</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1533,7 +1535,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar intill andra vedsvampar i en ca 5 meters granhögstubbe.</t>
+          <t>Måttligt</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1542,51 +1544,25 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130822207</v>
+        <v>130822198</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1615,16 +1591,19 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>426504</v>
+        <v>426516</v>
       </c>
       <c r="R9" t="n">
-        <v>7047832</v>
+        <v>7048217</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1659,29 +1638,50 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Måttligt</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130822204</v>
+        <v>130822177</v>
       </c>
       <c r="B12" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1932,30 +1932,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>426409</v>
+        <v>426500</v>
       </c>
       <c r="R12" t="n">
-        <v>7048165</v>
+        <v>7048040</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1990,34 +1997,65 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130822177</v>
+        <v>130822204</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2025,37 +2063,30 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>426500</v>
+        <v>426409</v>
       </c>
       <c r="R13" t="n">
-        <v>7048040</v>
+        <v>7048165</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2090,55 +2121,24 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -2339,10 +2339,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130822175</v>
+        <v>130822203</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2350,34 +2350,30 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>426484</v>
+        <v>426286</v>
       </c>
       <c r="R16" t="n">
-        <v>7048011</v>
+        <v>7048138</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2412,11 +2408,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Relativt rikligt på flera granar.</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2429,22 +2420,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130822203</v>
+        <v>130822175</v>
       </c>
       <c r="B17" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2452,30 +2443,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>426286</v>
+        <v>426484</v>
       </c>
       <c r="R17" t="n">
-        <v>7048138</v>
+        <v>7048011</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2510,6 +2505,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Relativt rikligt på flera granar.</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2522,12 +2522,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>

--- a/artfynd/A 62177-2025 artfynd.xlsx
+++ b/artfynd/A 62177-2025 artfynd.xlsx
@@ -1921,10 +1921,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130822177</v>
+        <v>130822202</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1932,37 +1932,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>426500</v>
+        <v>426393</v>
       </c>
       <c r="R12" t="n">
-        <v>7048040</v>
+        <v>7048149</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1997,55 +1994,24 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -2145,10 +2111,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130822202</v>
+        <v>130822177</v>
       </c>
       <c r="B14" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2156,34 +2122,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>426393</v>
+        <v>426500</v>
       </c>
       <c r="R14" t="n">
-        <v>7048149</v>
+        <v>7048040</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2218,24 +2187,55 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
@@ -2339,10 +2339,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130822203</v>
+        <v>130822175</v>
       </c>
       <c r="B16" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2350,30 +2350,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>426286</v>
+        <v>426484</v>
       </c>
       <c r="R16" t="n">
-        <v>7048138</v>
+        <v>7048011</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2408,6 +2412,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Relativt rikligt på flera granar.</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2420,22 +2429,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130822175</v>
+        <v>130822203</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2443,34 +2452,30 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>426484</v>
+        <v>426286</v>
       </c>
       <c r="R17" t="n">
-        <v>7048011</v>
+        <v>7048138</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2505,11 +2510,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Relativt rikligt på flera granar.</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2522,12 +2522,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130822179</v>
+        <v>130822255</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3153,26 +3153,30 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3180,10 +3184,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>426474</v>
+        <v>426447</v>
       </c>
       <c r="R23" t="n">
-        <v>7048132</v>
+        <v>7048182</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3218,11 +3222,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Enstaka bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
@@ -3250,12 +3249,12 @@
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3273,10 +3272,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130822255</v>
+        <v>130822179</v>
       </c>
       <c r="B24" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3284,30 +3283,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3315,10 +3310,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>426447</v>
+        <v>426474</v>
       </c>
       <c r="R24" t="n">
-        <v>7048182</v>
+        <v>7048132</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3353,6 +3348,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Enstaka bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>

--- a/artfynd/A 62177-2025 artfynd.xlsx
+++ b/artfynd/A 62177-2025 artfynd.xlsx
@@ -2339,10 +2339,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130822175</v>
+        <v>130822203</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2350,34 +2350,30 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>426484</v>
+        <v>426286</v>
       </c>
       <c r="R16" t="n">
-        <v>7048011</v>
+        <v>7048138</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2412,11 +2408,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Relativt rikligt på flera granar.</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2429,22 +2420,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130822203</v>
+        <v>130822175</v>
       </c>
       <c r="B17" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2452,30 +2443,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>426286</v>
+        <v>426484</v>
       </c>
       <c r="R17" t="n">
-        <v>7048138</v>
+        <v>7048011</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2510,6 +2505,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Relativt rikligt på flera granar.</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2522,12 +2522,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130822255</v>
+        <v>130822179</v>
       </c>
       <c r="B23" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3153,30 +3153,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3184,10 +3180,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>426447</v>
+        <v>426474</v>
       </c>
       <c r="R23" t="n">
-        <v>7048182</v>
+        <v>7048132</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3222,6 +3218,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Enstaka bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
@@ -3249,12 +3250,12 @@
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3272,10 +3273,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130822179</v>
+        <v>130822255</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3283,26 +3284,30 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3310,10 +3315,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>426474</v>
+        <v>426447</v>
       </c>
       <c r="R24" t="n">
-        <v>7048132</v>
+        <v>7048182</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3348,11 +3353,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Enstaka bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>

--- a/artfynd/A 62177-2025 artfynd.xlsx
+++ b/artfynd/A 62177-2025 artfynd.xlsx
@@ -2242,10 +2242,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130822199</v>
+        <v>130822203</v>
       </c>
       <c r="B15" t="n">
-        <v>91804</v>
+        <v>91828</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2253,23 +2253,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2277,10 +2273,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>426404</v>
+        <v>426286</v>
       </c>
       <c r="R15" t="n">
-        <v>7047955</v>
+        <v>7048138</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2339,10 +2335,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130822203</v>
+        <v>130822175</v>
       </c>
       <c r="B16" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2350,30 +2346,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>426286</v>
+        <v>426484</v>
       </c>
       <c r="R16" t="n">
-        <v>7048138</v>
+        <v>7048011</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2408,6 +2408,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Relativt rikligt på flera granar.</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2420,22 +2425,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130822175</v>
+        <v>130822199</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2443,34 +2448,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>426484</v>
+        <v>426404</v>
       </c>
       <c r="R17" t="n">
-        <v>7048011</v>
+        <v>7047955</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2505,11 +2510,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Relativt rikligt på flera granar.</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2522,12 +2522,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>

--- a/artfynd/A 62177-2025 artfynd.xlsx
+++ b/artfynd/A 62177-2025 artfynd.xlsx
@@ -818,7 +818,7 @@
         <v>130822196</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>130822184</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>130822173</v>
       </c>
       <c r="B5" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>130822205</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>130822200</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>130822207</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>130822198</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>130822181</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130822202</v>
+        <v>130822204</v>
       </c>
       <c r="B12" t="n">
-        <v>91804</v>
+        <v>91829</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1932,23 +1932,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1956,10 +1952,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>426393</v>
+        <v>426409</v>
       </c>
       <c r="R12" t="n">
-        <v>7048149</v>
+        <v>7048165</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2018,10 +2014,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130822204</v>
+        <v>130822177</v>
       </c>
       <c r="B13" t="n">
-        <v>91828</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2029,30 +2025,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>426409</v>
+        <v>426500</v>
       </c>
       <c r="R13" t="n">
-        <v>7048165</v>
+        <v>7048040</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2087,34 +2090,65 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130822177</v>
+        <v>130822202</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>91805</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2122,37 +2156,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>426500</v>
+        <v>426393</v>
       </c>
       <c r="R14" t="n">
-        <v>7048040</v>
+        <v>7048149</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2187,65 +2218,34 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130822203</v>
+        <v>130822199</v>
       </c>
       <c r="B15" t="n">
-        <v>91828</v>
+        <v>91805</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2253,19 +2253,23 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2273,10 +2277,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>426286</v>
+        <v>426404</v>
       </c>
       <c r="R15" t="n">
-        <v>7048138</v>
+        <v>7047955</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2335,10 +2339,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130822175</v>
+        <v>130822203</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2346,34 +2350,30 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Djupsjön Öst, Jmt</t>
+          <t>Djupsjön ö, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>426484</v>
+        <v>426286</v>
       </c>
       <c r="R16" t="n">
-        <v>7048011</v>
+        <v>7048138</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2408,11 +2408,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Relativt rikligt på flera granar.</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2425,22 +2420,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130822199</v>
+        <v>130822175</v>
       </c>
       <c r="B17" t="n">
-        <v>91804</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2448,34 +2443,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Djupsjön ö, Jmt</t>
+          <t>Djupsjön Öst, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>426404</v>
+        <v>426484</v>
       </c>
       <c r="R17" t="n">
-        <v>7047955</v>
+        <v>7048011</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2510,6 +2505,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Relativt rikligt på flera granar.</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2522,12 +2522,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -2537,7 +2537,7 @@
         <v>130822188</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>130822193</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>130822186</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>130822201</v>
       </c>
       <c r="B22" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130822179</v>
+        <v>130822255</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>91809</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3153,26 +3153,30 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3180,10 +3184,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>426474</v>
+        <v>426447</v>
       </c>
       <c r="R23" t="n">
-        <v>7048132</v>
+        <v>7048182</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3218,11 +3222,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Enstaka bålar på gran.</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
@@ -3250,12 +3249,12 @@
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, utan markontakt</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Horizontal, dead without ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3273,10 +3272,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130822255</v>
+        <v>130822179</v>
       </c>
       <c r="B24" t="n">
-        <v>91808</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3284,30 +3283,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3315,10 +3310,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>426447</v>
+        <v>426474</v>
       </c>
       <c r="R24" t="n">
-        <v>7048182</v>
+        <v>7048132</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3353,6 +3348,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Enstaka bålar på gran.</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, utan markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Horizontal, dead without ground contact # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3406,7 +3406,7 @@
         <v>130822190</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
